--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H2">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I2">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J2">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N2">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q2">
-        <v>117.956133750464</v>
+        <v>307.2057225687256</v>
       </c>
       <c r="R2">
-        <v>1061.605203754176</v>
+        <v>2764.85150311853</v>
       </c>
       <c r="S2">
-        <v>0.03297690881271426</v>
+        <v>0.05016889947065561</v>
       </c>
       <c r="T2">
-        <v>0.03297690881271426</v>
+        <v>0.05016889947065562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H3">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I3">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J3">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q3">
-        <v>39.59271617152001</v>
+        <v>67.42388133724445</v>
       </c>
       <c r="R3">
-        <v>356.33444554368</v>
+        <v>606.8149320352001</v>
       </c>
       <c r="S3">
-        <v>0.01106890629018057</v>
+        <v>0.01101080375862109</v>
       </c>
       <c r="T3">
-        <v>0.01106890629018058</v>
+        <v>0.01101080375862109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H4">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I4">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J4">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q4">
-        <v>3311.063951968409</v>
+        <v>5638.531643811066</v>
       </c>
       <c r="R4">
-        <v>29799.57556771568</v>
+        <v>50746.78479429959</v>
       </c>
       <c r="S4">
-        <v>0.9256716929033626</v>
+        <v>0.9208126881073463</v>
       </c>
       <c r="T4">
-        <v>0.9256716929033627</v>
+        <v>0.9208126881073465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.866661</v>
       </c>
       <c r="I5">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J5">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N5">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q5">
-        <v>1.400379347317333</v>
+        <v>2.141687078051334</v>
       </c>
       <c r="R5">
-        <v>12.603414125856</v>
+        <v>19.275183702462</v>
       </c>
       <c r="S5">
-        <v>0.0003915030153275971</v>
+        <v>0.0003497528718473743</v>
       </c>
       <c r="T5">
-        <v>0.0003915030153275971</v>
+        <v>0.0003497528718473744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.866661</v>
       </c>
       <c r="I6">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J6">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q6">
         <v>0.4700461117866667</v>
@@ -818,10 +818,10 @@
         <v>4.23041500608</v>
       </c>
       <c r="S6">
-        <v>0.0001314104427918215</v>
+        <v>7.676190382007719E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001314104427918215</v>
+        <v>7.676190382007722E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.866661</v>
       </c>
       <c r="I7">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J7">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q7">
         <v>39.30906709601467</v>
@@ -880,10 +880,10 @@
         <v>353.781603864132</v>
       </c>
       <c r="S7">
-        <v>0.01098960672855253</v>
+        <v>0.006419452798389963</v>
       </c>
       <c r="T7">
-        <v>0.01098960672855253</v>
+        <v>0.006419452798389965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.413001</v>
       </c>
       <c r="I8">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J8">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N8">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q8">
-        <v>2.283173487832889</v>
+        <v>3.491798965193555</v>
       </c>
       <c r="R8">
-        <v>20.548561390496</v>
+        <v>31.426190686742</v>
       </c>
       <c r="S8">
-        <v>0.0006383051183345159</v>
+        <v>0.000570235833472617</v>
       </c>
       <c r="T8">
-        <v>0.000638305118334516</v>
+        <v>0.0005702358334726172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.413001</v>
       </c>
       <c r="I9">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J9">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q9">
         <v>0.7663615023644444</v>
@@ -1004,10 +1004,10 @@
         <v>6.897253521280001</v>
       </c>
       <c r="S9">
-        <v>0.0002142511167287862</v>
+        <v>0.0001251523339110366</v>
       </c>
       <c r="T9">
-        <v>0.0002142511167287862</v>
+        <v>0.0001251523339110366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.413001</v>
       </c>
       <c r="I10">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J10">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q10">
         <v>64.08936264091244</v>
@@ -1066,10 +1066,10 @@
         <v>576.804263768212</v>
       </c>
       <c r="S10">
-        <v>0.01791741557200734</v>
+        <v>0.01046625292193581</v>
       </c>
       <c r="T10">
-        <v>0.01791741557200735</v>
+        <v>0.01046625292193582</v>
       </c>
     </row>
   </sheetData>
